--- a/KurseMscECMX_WiSe25.xlsx
+++ b/KurseMscECMX_WiSe25.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\CourseOverview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673D18A-8928-4483-89A5-346FA6CCCCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C74F56D-D636-484A-A631-0722ADBAF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste" sheetId="8" r:id="rId1"/>
     <sheet name="Kursliste" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kursliste!$A$1:$AMF$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kursliste!$A$1:$AMF$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Liste!$A$1:$C$59</definedName>
     <definedName name="Anfangszeit" localSheetId="0">#REF!</definedName>
     <definedName name="Anfangszeit">#REF!</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="567">
   <si>
     <t>Kurs</t>
   </si>
@@ -1703,9 +1703,6 @@
   </si>
   <si>
     <t>Alternative  - Advance R (maybe name change</t>
-  </si>
-  <si>
-    <t>- Vorlesung/Übung: Advanced R Universität Duisburg-Essen</t>
   </si>
   <si>
     <t>Energy Forecasting Competition</t>
@@ -1764,7 +1761,7 @@
     <numFmt numFmtId="164" formatCode=";;;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF595959"/>
@@ -1992,13 +1989,6 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2195,7 +2185,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2604,17 +2594,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4104,11 +4090,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMF146"/>
+  <dimension ref="A1:AMF145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -16219,7 +16205,7 @@
         <v>379</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K24" s="33">
         <v>35</v>
@@ -29679,7 +29665,7 @@
       </c>
       <c r="N56" s="104"/>
       <c r="O56" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -49555,7 +49541,7 @@
         <v>378</v>
       </c>
       <c r="J121" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K121" s="22">
         <v>108</v>
@@ -50167,7 +50153,7 @@
       </c>
       <c r="N135" s="109"/>
       <c r="O135" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50206,7 +50192,7 @@
       </c>
       <c r="N136" s="109"/>
       <c r="O136" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50245,7 +50231,7 @@
       </c>
       <c r="N137" s="109"/>
       <c r="O137" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50284,7 +50270,7 @@
       </c>
       <c r="N138" s="109"/>
       <c r="O138" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50323,7 +50309,7 @@
       </c>
       <c r="N139" s="109"/>
       <c r="O139" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50362,7 +50348,7 @@
       </c>
       <c r="N140" s="109"/>
       <c r="O140" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50379,7 +50365,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F141" s="114" t="s">
         <v>49</v>
@@ -50401,7 +50387,7 @@
       </c>
       <c r="N141" s="109"/>
       <c r="O141" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
@@ -50440,23 +50426,24 @@
       </c>
       <c r="N142" s="109"/>
       <c r="O142" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A143" s="122" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="121"/>
-      <c r="C143" s="14" t="str">
-        <f>VLOOKUP($E143,Liste!$A$2:$C$59,2,FALSE)</f>
-        <v>Chair of Econometrics</v>
+        <v>551</v>
+      </c>
+      <c r="B143" s="125" t="s">
+        <v>551</v>
+      </c>
+      <c r="C143" s="125" t="s">
+        <v>552</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>9</v>
@@ -50464,38 +50451,41 @@
       <c r="G143" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H143" s="121"/>
+      <c r="H143" s="19" t="s">
+        <v>429</v>
+      </c>
       <c r="I143" s="121"/>
-      <c r="J143" s="125" t="s">
-        <v>551</v>
+      <c r="J143" s="124" t="s">
+        <v>553</v>
       </c>
       <c r="K143" s="121"/>
       <c r="L143" s="21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M143" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N143" s="109"/>
       <c r="O143" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A144" s="123" t="s">
-        <v>552</v>
-      </c>
-      <c r="B144" s="126" t="s">
-        <v>552</v>
-      </c>
-      <c r="C144" s="126" t="s">
-        <v>553</v>
+      <c r="A144" s="122" t="s">
+        <v>554</v>
+      </c>
+      <c r="B144" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="123" t="str">
+        <f>VLOOKUP($E144,Liste!$A$2:$C$59,2,FALSE)</f>
+        <v>Chair of Econometrics</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>8</v>
+        <v>556</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>9</v>
@@ -50506,11 +50496,15 @@
       <c r="H144" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="I144" s="121"/>
-      <c r="J144" s="125" t="s">
-        <v>554</v>
-      </c>
-      <c r="K144" s="121"/>
+      <c r="I144" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J144" s="124" t="s">
+        <v>555</v>
+      </c>
+      <c r="K144" s="22">
+        <v>103</v>
+      </c>
       <c r="L144" s="21" t="s">
         <v>11</v>
       </c>
@@ -50518,99 +50512,53 @@
         <v>95</v>
       </c>
       <c r="N144" s="109"/>
-      <c r="O144" s="12" t="s">
-        <v>559</v>
-      </c>
     </row>
     <row r="145" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A145" s="123" t="s">
-        <v>555</v>
-      </c>
-      <c r="B145" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C145" s="124" t="str">
-        <f>VLOOKUP($E145,Liste!$A$2:$C$59,2,FALSE)</f>
-        <v>Chair of Econometrics</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="20" t="s">
+      <c r="A145" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G145" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="H145" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="I145" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="J145" s="125" t="s">
-        <v>556</v>
-      </c>
-      <c r="K145" s="22">
-        <v>103</v>
-      </c>
-      <c r="L145" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M145" s="23" t="s">
+      <c r="H145" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="J145" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="K145" s="33"/>
+      <c r="L145" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="M145" s="24" t="s">
         <v>95</v>
       </c>
       <c r="N145" s="109"/>
-    </row>
-    <row r="146" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A146" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G146" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H146" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="J146" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="K146" s="33"/>
-      <c r="L146" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="M146" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N146" s="109"/>
-      <c r="O146" s="12" t="s">
-        <v>559</v>
+      <c r="O145" s="12" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AMF146" xr:uid="{74FC7BA3-A876-4AC0-9905-EF4CDF2546B3}">
+  <autoFilter ref="A1:AMF145" xr:uid="{74FC7BA3-A876-4AC0-9905-EF4CDF2546B3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AMF133">
       <sortCondition ref="K1:K133"/>
     </sortState>
@@ -50737,13 +50685,12 @@
     <hyperlink ref="J118" r:id="rId112" xr:uid="{91638178-0DC8-4BBF-8C25-7962D4604432}"/>
     <hyperlink ref="J126" r:id="rId113" xr:uid="{F0BFB9ED-61E7-420F-A166-8FC1C9CD9BD8}"/>
     <hyperlink ref="J106" r:id="rId114" xr:uid="{B875755C-32E0-4D75-87E1-2C1A87B98DAD}"/>
-    <hyperlink ref="J143" r:id="rId115" display="https://campus.uni-due.de/lsf/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=424717&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung" xr:uid="{BEA69CD1-D30F-4036-A0FD-AF4D26BF763B}"/>
-    <hyperlink ref="J144" r:id="rId116" display="https://campus.uni-due.de/lsf/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=430133&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung&amp;noDBAction=y&amp;init=y" xr:uid="{5869DE52-8CB0-4F2F-8FDC-7007D0C28944}"/>
-    <hyperlink ref="J145" r:id="rId117" display="https://campus.uni-due.de/lsf/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=424524&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung" xr:uid="{EE015FE3-7A19-4DC6-ADBD-02F540EDBFD7}"/>
-    <hyperlink ref="J146" r:id="rId118" xr:uid="{EC8F481A-AD40-4287-AED3-366DF469E6A1}"/>
-    <hyperlink ref="J121" r:id="rId119" xr:uid="{96687E3E-815F-4C5B-AB7F-D0287E3FD501}"/>
+    <hyperlink ref="J143" r:id="rId115" display="https://campus.uni-due.de/lsf/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=430133&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung&amp;noDBAction=y&amp;init=y" xr:uid="{5869DE52-8CB0-4F2F-8FDC-7007D0C28944}"/>
+    <hyperlink ref="J144" r:id="rId116" display="https://campus.uni-due.de/lsf/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=424524&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung" xr:uid="{EE015FE3-7A19-4DC6-ADBD-02F540EDBFD7}"/>
+    <hyperlink ref="J145" r:id="rId117" xr:uid="{EC8F481A-AD40-4287-AED3-366DF469E6A1}"/>
+    <hyperlink ref="J121" r:id="rId118" xr:uid="{96687E3E-815F-4C5B-AB7F-D0287E3FD501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId120"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
 </worksheet>
 </file>
--- a/KurseMscECMX_WiSe25.xlsx
+++ b/KurseMscECMX_WiSe25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\CourseOverview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\CourseOverview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C74F56D-D636-484A-A631-0722ADBAF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33870A38-0FFB-487A-8591-8D81B0ECBAFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste" sheetId="8" r:id="rId1"/>
@@ -24,17 +24,8 @@
     <definedName name="Intervall" localSheetId="0">#REF!</definedName>
     <definedName name="Intervall">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -2611,8 +2602,8 @@
     <cellStyle name="Excel Built-in Heading 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Excel Built-in Title" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Table_Details" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Uhrzeit" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
@@ -2717,7 +2708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3020,15 +3011,15 @@
       <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.3515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="1010" width="10.46875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="1010" width="10.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3039,7 +3030,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -3050,7 +3041,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>79</v>
       </c>
@@ -3061,7 +3052,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -3072,7 +3063,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>122</v>
       </c>
@@ -3083,7 +3074,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>151</v>
       </c>
@@ -3094,7 +3085,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -3105,7 +3096,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>233</v>
       </c>
@@ -3116,7 +3107,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>261</v>
       </c>
@@ -3127,7 +3118,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -3138,7 +3129,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>352</v>
       </c>
@@ -3149,7 +3140,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>141</v>
       </c>
@@ -3160,7 +3151,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>349</v>
       </c>
@@ -3171,7 +3162,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>347</v>
       </c>
@@ -3182,7 +3173,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>273</v>
       </c>
@@ -3193,7 +3184,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>138</v>
       </c>
@@ -3204,7 +3195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3215,7 +3206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>262</v>
       </c>
@@ -3226,7 +3217,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
@@ -3237,7 +3228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>283</v>
       </c>
@@ -3248,7 +3239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>278</v>
       </c>
@@ -3259,7 +3250,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>268</v>
       </c>
@@ -3270,7 +3261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -3281,7 +3272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>248</v>
       </c>
@@ -3292,7 +3283,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>222</v>
       </c>
@@ -3303,7 +3294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>267</v>
       </c>
@@ -3314,7 +3305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>353</v>
       </c>
@@ -3325,14 +3316,14 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>338</v>
       </c>
@@ -3343,7 +3334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -3354,7 +3345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -3365,7 +3356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>123</v>
       </c>
@@ -3376,7 +3367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -3387,7 +3378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>162</v>
       </c>
@@ -3398,7 +3389,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -3409,7 +3400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
@@ -3420,7 +3411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>256</v>
       </c>
@@ -3431,7 +3422,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>342</v>
       </c>
@@ -3443,7 +3434,7 @@
       </c>
       <c r="G38" s="65"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>288</v>
       </c>
@@ -3456,7 +3447,7 @@
       <c r="E39" s="91"/>
       <c r="G39" s="66"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="s">
         <v>387</v>
       </c>
@@ -3468,7 +3459,7 @@
       </c>
       <c r="G40" s="66"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>361</v>
       </c>
@@ -3479,7 +3470,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>398</v>
       </c>
@@ -3490,7 +3481,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
         <v>400</v>
       </c>
@@ -3501,12 +3492,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>125</v>
       </c>
@@ -3517,7 +3508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>98</v>
       </c>
@@ -3528,7 +3519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>168</v>
       </c>
@@ -3550,7 +3541,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>18</v>
       </c>
@@ -3561,7 +3552,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>295</v>
       </c>
@@ -3572,7 +3563,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
@@ -3583,7 +3574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +3585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -3605,7 +3596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>257</v>
       </c>
@@ -3616,7 +3607,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
@@ -3627,7 +3618,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>45</v>
       </c>
@@ -3649,7 +3640,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>129</v>
       </c>
@@ -3660,7 +3651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>132</v>
       </c>
@@ -3671,7 +3662,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>243</v>
       </c>
@@ -3682,7 +3673,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>168</v>
       </c>
@@ -3693,7 +3684,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>415</v>
       </c>
@@ -3704,354 +3695,354 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
     </row>
-    <row r="102" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
     </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
     </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
     </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
     </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
     </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C59" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortState ref="A2:C51">
       <sortCondition sortBy="cellColor" ref="A1:A51" dxfId="0"/>
     </sortState>
   </autoFilter>
@@ -4093,30 +4084,30 @@
   <dimension ref="A1:AMF145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.87890625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.05859375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.3515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.3515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.05859375" style="12" customWidth="1"/>
-    <col min="7" max="9" width="12.87890625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="31.64453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="19.87890625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="12" customWidth="1"/>
+    <col min="7" max="9" width="12.90625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="31.6328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" style="12" customWidth="1"/>
     <col min="12" max="12" width="16" style="12" customWidth="1"/>
     <col min="13" max="13" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.05859375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="240.29296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="1020" width="10.46875" style="12" customWidth="1"/>
-    <col min="1021" max="16384" width="8.87890625" style="26"/>
+    <col min="14" max="14" width="18.08984375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="240.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="1020" width="10.453125" style="12" customWidth="1"/>
+    <col min="1021" max="16384" width="8.90625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020" s="17" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1020" s="17" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +4149,7 @@
       </c>
       <c r="S1" s="41"/>
     </row>
-    <row r="2" spans="1:1020" s="17" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:1020" s="17" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
         <v>152</v>
       </c>
@@ -4201,7 +4192,7 @@
       <c r="N2" s="105"/>
       <c r="S2" s="41"/>
     </row>
-    <row r="3" spans="1:1020" s="17" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:1020" s="17" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18" t="s">
         <v>231</v>
       </c>
@@ -4245,7 +4236,7 @@
       <c r="N3" s="105"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:1020" s="17" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:1020" s="17" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
         <v>59</v>
       </c>
@@ -5294,7 +5285,7 @@
       <c r="AME4" s="29"/>
       <c r="AMF4" s="29"/>
     </row>
-    <row r="5" spans="1:1020" s="17" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:1020" s="17" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19" t="s">
         <v>228</v>
       </c>
@@ -6343,7 +6334,7 @@
       <c r="AME5" s="12"/>
       <c r="AMF5" s="12"/>
     </row>
-    <row r="6" spans="1:1020" s="17" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:1020" s="17" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
         <v>335</v>
       </c>
@@ -7394,7 +7385,7 @@
       <c r="AME6" s="28"/>
       <c r="AMF6" s="28"/>
     </row>
-    <row r="7" spans="1:1020" s="29" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:1020" s="29" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18" t="s">
         <v>72</v>
       </c>
@@ -8443,7 +8434,7 @@
       <c r="AME7" s="28"/>
       <c r="AMF7" s="28"/>
     </row>
-    <row r="8" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24" t="s">
         <v>362</v>
       </c>
@@ -9492,7 +9483,7 @@
       <c r="AME8" s="12"/>
       <c r="AMF8" s="12"/>
     </row>
-    <row r="9" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24" t="s">
         <v>78</v>
       </c>
@@ -10541,7 +10532,7 @@
       <c r="AME9" s="12"/>
       <c r="AMF9" s="12"/>
     </row>
-    <row r="10" spans="1:1020" s="28" customFormat="1" ht="37.15" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:1020" s="28" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24" t="s">
         <v>269</v>
       </c>
@@ -11590,7 +11581,7 @@
       <c r="AME10" s="12"/>
       <c r="AMF10" s="12"/>
     </row>
-    <row r="11" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24" t="s">
         <v>270</v>
       </c>
@@ -12639,7 +12630,7 @@
       <c r="AME11" s="12"/>
       <c r="AMF11" s="12"/>
     </row>
-    <row r="12" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24" t="s">
         <v>271</v>
       </c>
@@ -13688,7 +13679,7 @@
       <c r="AME12" s="12"/>
       <c r="AMF12" s="12"/>
     </row>
-    <row r="13" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24" t="s">
         <v>140</v>
       </c>
@@ -14737,7 +14728,7 @@
       <c r="AME13" s="12"/>
       <c r="AMF13" s="12"/>
     </row>
-    <row r="14" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24" t="s">
         <v>232</v>
       </c>
@@ -15786,7 +15777,7 @@
       <c r="AME14" s="12"/>
       <c r="AMF14" s="12"/>
     </row>
-    <row r="15" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24" t="s">
         <v>145</v>
       </c>
@@ -15830,7 +15821,7 @@
       <c r="N15" s="104"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24" t="s">
         <v>316</v>
       </c>
@@ -15874,7 +15865,7 @@
       <c r="N16" s="104"/>
       <c r="S16" s="52"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="24" t="s">
         <v>317</v>
       </c>
@@ -15917,7 +15908,7 @@
       </c>
       <c r="N17" s="104"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24" t="s">
         <v>82</v>
       </c>
@@ -15960,7 +15951,7 @@
       </c>
       <c r="N18" s="104"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24" t="s">
         <v>137</v>
       </c>
@@ -16003,7 +15994,7 @@
       </c>
       <c r="N19" s="104"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24" t="s">
         <v>149</v>
       </c>
@@ -16046,7 +16037,7 @@
       </c>
       <c r="N20" s="104"/>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24" t="s">
         <v>75</v>
       </c>
@@ -16089,7 +16080,7 @@
       </c>
       <c r="N21" s="104"/>
     </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24" t="s">
         <v>272</v>
       </c>
@@ -16133,7 +16124,7 @@
       <c r="N22" s="104"/>
       <c r="O22" s="94"/>
     </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24" t="s">
         <v>336</v>
       </c>
@@ -16176,7 +16167,7 @@
       </c>
       <c r="N23" s="104"/>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24" t="s">
         <v>235</v>
       </c>
@@ -16218,7 +16209,7 @@
       </c>
       <c r="N24" s="104"/>
     </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24" t="s">
         <v>81</v>
       </c>
@@ -16261,7 +16252,7 @@
       </c>
       <c r="N25" s="104"/>
     </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24" t="s">
         <v>325</v>
       </c>
@@ -16304,7 +16295,7 @@
       </c>
       <c r="N26" s="104"/>
     </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24" t="s">
         <v>276</v>
       </c>
@@ -16347,7 +16338,7 @@
       <c r="N27" s="104"/>
       <c r="O27" s="44"/>
     </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="24" t="s">
         <v>85</v>
       </c>
@@ -16390,7 +16381,7 @@
       </c>
       <c r="N28" s="104"/>
     </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="24" t="s">
         <v>60</v>
       </c>
@@ -16433,7 +16424,7 @@
       </c>
       <c r="N29" s="104"/>
     </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="24" t="s">
         <v>333</v>
       </c>
@@ -16476,7 +16467,7 @@
       </c>
       <c r="N30" s="104"/>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="24" t="s">
         <v>136</v>
       </c>
@@ -16519,7 +16510,7 @@
       </c>
       <c r="N31" s="104"/>
     </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="32" spans="1:15" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="24" t="s">
         <v>87</v>
       </c>
@@ -16563,7 +16554,7 @@
       <c r="N32" s="104"/>
       <c r="O32" s="95"/>
     </row>
-    <row r="33" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="33" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="24" t="s">
         <v>84</v>
       </c>
@@ -16606,7 +16597,7 @@
       </c>
       <c r="N33" s="104"/>
     </row>
-    <row r="34" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="34" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="24" t="s">
         <v>83</v>
       </c>
@@ -16649,7 +16640,7 @@
       </c>
       <c r="N34" s="104"/>
     </row>
-    <row r="35" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="35" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="18" t="s">
         <v>326</v>
       </c>
@@ -17696,7 +17687,7 @@
       <c r="AME35" s="28"/>
       <c r="AMF35" s="28"/>
     </row>
-    <row r="36" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="36" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="18" t="s">
         <v>46</v>
       </c>
@@ -18744,7 +18735,7 @@
       <c r="AME36" s="28"/>
       <c r="AMF36" s="28"/>
     </row>
-    <row r="37" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="37" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="18" t="s">
         <v>238</v>
       </c>
@@ -19790,7 +19781,7 @@
       <c r="AME37" s="28"/>
       <c r="AMF37" s="28"/>
     </row>
-    <row r="38" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="38" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="18" t="s">
         <v>271</v>
       </c>
@@ -20838,7 +20829,7 @@
       <c r="AME38" s="28"/>
       <c r="AMF38" s="28"/>
     </row>
-    <row r="39" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="39" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="18" t="s">
         <v>281</v>
       </c>
@@ -21886,7 +21877,7 @@
       <c r="AME39" s="28"/>
       <c r="AMF39" s="28"/>
     </row>
-    <row r="40" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="40" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="18" t="s">
         <v>57</v>
       </c>
@@ -21930,7 +21921,7 @@
       <c r="N40" s="104"/>
       <c r="O40" s="102"/>
     </row>
-    <row r="41" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="41" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="18" t="s">
         <v>62</v>
       </c>
@@ -21973,7 +21964,7 @@
       </c>
       <c r="N41" s="104"/>
     </row>
-    <row r="42" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="42" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="18" t="s">
         <v>318</v>
       </c>
@@ -22017,7 +22008,7 @@
       <c r="N42" s="104"/>
       <c r="S42" s="53"/>
     </row>
-    <row r="43" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="43" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="18" t="s">
         <v>286</v>
       </c>
@@ -23067,7 +23058,7 @@
       <c r="AME43" s="12"/>
       <c r="AMF43" s="12"/>
     </row>
-    <row r="44" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="44" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="18" t="s">
         <v>287</v>
       </c>
@@ -24117,7 +24108,7 @@
       <c r="AME44" s="12"/>
       <c r="AMF44" s="12"/>
     </row>
-    <row r="45" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="45" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="40" t="s">
         <v>247</v>
       </c>
@@ -25167,7 +25158,7 @@
       <c r="AME45" s="12"/>
       <c r="AMF45" s="12"/>
     </row>
-    <row r="46" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="46" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18" t="s">
         <v>246</v>
       </c>
@@ -26216,7 +26207,7 @@
       <c r="AME46" s="12"/>
       <c r="AMF46" s="12"/>
     </row>
-    <row r="47" spans="1:1020" s="28" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="47" spans="1:1020" s="28" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18" t="s">
         <v>155</v>
       </c>
@@ -27265,7 +27256,7 @@
       <c r="AME47" s="12"/>
       <c r="AMF47" s="12"/>
     </row>
-    <row r="48" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="48" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="18" t="s">
         <v>331</v>
       </c>
@@ -28314,7 +28305,7 @@
       <c r="AME48" s="28"/>
       <c r="AMF48" s="28"/>
     </row>
-    <row r="49" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="49" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="18" t="s">
         <v>154</v>
       </c>
@@ -28357,7 +28348,7 @@
       </c>
       <c r="N49" s="104"/>
     </row>
-    <row r="50" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="50" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="18" t="s">
         <v>249</v>
       </c>
@@ -28395,7 +28386,7 @@
         <v>11</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N50" s="104"/>
       <c r="O50" s="28"/>
@@ -29405,7 +29396,7 @@
       <c r="AME50" s="28"/>
       <c r="AMF50" s="28"/>
     </row>
-    <row r="51" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="51" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="18" t="s">
         <v>303</v>
       </c>
@@ -29447,7 +29438,7 @@
       </c>
       <c r="N51" s="104"/>
     </row>
-    <row r="52" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="52" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="18" t="s">
         <v>50</v>
       </c>
@@ -29490,7 +29481,7 @@
       </c>
       <c r="N52" s="104"/>
     </row>
-    <row r="53" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="53" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="18" t="s">
         <v>291</v>
       </c>
@@ -29533,7 +29524,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="54" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="18" t="s">
         <v>292</v>
       </c>
@@ -29578,7 +29569,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="55" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="18" t="s">
         <v>89</v>
       </c>
@@ -29622,7 +29613,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="56" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="56" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="18" t="s">
         <v>60</v>
       </c>
@@ -29668,7 +29659,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="57" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="18" t="s">
         <v>225</v>
       </c>
@@ -29711,7 +29702,7 @@
       </c>
       <c r="N57" s="104"/>
     </row>
-    <row r="58" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="58" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="18" t="s">
         <v>64</v>
       </c>
@@ -29755,7 +29746,7 @@
       <c r="N58" s="104"/>
       <c r="O58" s="44"/>
     </row>
-    <row r="59" spans="1:1020" s="76" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="59" spans="1:1020" s="76" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="71" t="s">
         <v>158</v>
       </c>
@@ -29799,7 +29790,7 @@
       <c r="N59" s="107"/>
       <c r="O59" s="83"/>
     </row>
-    <row r="60" spans="1:1020" s="90" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="60" spans="1:1020" s="90" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="84" t="s">
         <v>367</v>
       </c>
@@ -30847,7 +30838,7 @@
       <c r="AME60" s="88"/>
       <c r="AMF60" s="88"/>
     </row>
-    <row r="61" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="61" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="18" t="s">
         <v>330</v>
       </c>
@@ -31897,7 +31888,7 @@
       <c r="AME61" s="28"/>
       <c r="AMF61" s="28"/>
     </row>
-    <row r="62" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="62" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="18" t="s">
         <v>101</v>
       </c>
@@ -31940,7 +31931,7 @@
       </c>
       <c r="N62" s="104"/>
     </row>
-    <row r="63" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="63" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="18" t="s">
         <v>334</v>
       </c>
@@ -32988,7 +32979,7 @@
       <c r="AME63" s="17"/>
       <c r="AMF63" s="17"/>
     </row>
-    <row r="64" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="64" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="18" t="s">
         <v>12</v>
       </c>
@@ -34036,7 +34027,7 @@
       <c r="AME64" s="28"/>
       <c r="AMF64" s="28"/>
     </row>
-    <row r="65" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="65" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18" t="s">
         <v>56</v>
       </c>
@@ -34079,7 +34070,7 @@
       </c>
       <c r="N65" s="104"/>
     </row>
-    <row r="66" spans="1:1020" s="12" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="66" spans="1:1020" s="12" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="18" t="s">
         <v>226</v>
       </c>
@@ -34122,7 +34113,7 @@
       </c>
       <c r="N66" s="104"/>
     </row>
-    <row r="67" spans="1:1020" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.9">
+    <row r="67" spans="1:1020" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="18" t="s">
         <v>159</v>
       </c>
@@ -34165,7 +34156,7 @@
       </c>
       <c r="N67" s="104"/>
     </row>
-    <row r="68" spans="1:1020" s="12" customFormat="1" ht="37.15" x14ac:dyDescent="0.9">
+    <row r="68" spans="1:1020" s="12" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="18" t="s">
         <v>99</v>
       </c>
@@ -34211,7 +34202,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="69" spans="1:1020" s="12" customFormat="1" ht="37.15" x14ac:dyDescent="0.9">
+    <row r="69" spans="1:1020" s="12" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18" t="s">
         <v>219</v>
       </c>
@@ -35259,7 +35250,7 @@
       <c r="AME69" s="28"/>
       <c r="AMF69" s="28"/>
     </row>
-    <row r="70" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="70" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="18" t="s">
         <v>329</v>
       </c>
@@ -35302,7 +35293,7 @@
       </c>
       <c r="N70" s="104"/>
     </row>
-    <row r="71" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="71" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="18" t="s">
         <v>305</v>
       </c>
@@ -35345,7 +35336,7 @@
       </c>
       <c r="N71" s="104"/>
     </row>
-    <row r="72" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="72" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="18" t="s">
         <v>304</v>
       </c>
@@ -35388,7 +35379,7 @@
       </c>
       <c r="N72" s="104"/>
     </row>
-    <row r="73" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="73" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="18" t="s">
         <v>102</v>
       </c>
@@ -35431,7 +35422,7 @@
       </c>
       <c r="N73" s="104"/>
     </row>
-    <row r="74" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="74" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="18" t="s">
         <v>69</v>
       </c>
@@ -35474,7 +35465,7 @@
       </c>
       <c r="N74" s="104"/>
     </row>
-    <row r="75" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="75" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="18" t="s">
         <v>70</v>
       </c>
@@ -35516,7 +35507,7 @@
       </c>
       <c r="N75" s="104"/>
     </row>
-    <row r="76" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="76" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="71" t="s">
         <v>160</v>
       </c>
@@ -36565,7 +36556,7 @@
       <c r="AME76" s="76"/>
       <c r="AMF76" s="76"/>
     </row>
-    <row r="77" spans="1:1020" s="90" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="77" spans="1:1020" s="90" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="84" t="s">
         <v>73</v>
       </c>
@@ -36608,7 +36599,7 @@
       </c>
       <c r="N77" s="108"/>
     </row>
-    <row r="78" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="78" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="55" t="s">
         <v>84</v>
       </c>
@@ -37657,7 +37648,7 @@
       <c r="AME78" s="59"/>
       <c r="AMF78" s="59"/>
     </row>
-    <row r="79" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18" t="s">
         <v>293</v>
       </c>
@@ -37700,7 +37691,7 @@
       </c>
       <c r="N79" s="104"/>
     </row>
-    <row r="80" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="80" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="18" t="s">
         <v>161</v>
       </c>
@@ -37743,7 +37734,7 @@
       </c>
       <c r="N80" s="104"/>
     </row>
-    <row r="81" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="81" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="55" t="s">
         <v>385</v>
       </c>
@@ -38792,7 +38783,7 @@
       <c r="AME81" s="59"/>
       <c r="AMF81" s="59"/>
     </row>
-    <row r="82" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="82" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="71" t="s">
         <v>63</v>
       </c>
@@ -39841,7 +39832,7 @@
       <c r="AME82" s="76"/>
       <c r="AMF82" s="76"/>
     </row>
-    <row r="83" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="83" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="18" t="s">
         <v>74</v>
       </c>
@@ -39884,7 +39875,7 @@
       </c>
       <c r="N83" s="110"/>
     </row>
-    <row r="84" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="84" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="18" t="s">
         <v>391</v>
       </c>
@@ -40930,7 +40921,7 @@
       <c r="AME84" s="63"/>
       <c r="AMF84" s="63"/>
     </row>
-    <row r="85" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="85" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="18" t="s">
         <v>392</v>
       </c>
@@ -41975,7 +41966,7 @@
       <c r="AME85" s="63"/>
       <c r="AMF85" s="63"/>
     </row>
-    <row r="86" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="18" t="s">
         <v>393</v>
       </c>
@@ -43019,7 +43010,7 @@
       <c r="AME86" s="63"/>
       <c r="AMF86" s="63"/>
     </row>
-    <row r="87" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="87" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="18" t="s">
         <v>394</v>
       </c>
@@ -44066,7 +44057,7 @@
       <c r="AME87" s="63"/>
       <c r="AMF87" s="63"/>
     </row>
-    <row r="88" spans="1:1020" s="52" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="88" spans="1:1020" s="52" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="61" t="s">
         <v>395</v>
       </c>
@@ -45113,7 +45104,7 @@
       <c r="AME88" s="63"/>
       <c r="AMF88" s="63"/>
     </row>
-    <row r="89" spans="1:1020" s="52" customFormat="1" ht="37.15" x14ac:dyDescent="0.9">
+    <row r="89" spans="1:1020" s="52" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="61" t="s">
         <v>396</v>
       </c>
@@ -46160,7 +46151,7 @@
       <c r="AME89" s="63"/>
       <c r="AMF89" s="63"/>
     </row>
-    <row r="90" spans="1:1020" s="52" customFormat="1" ht="37.15" x14ac:dyDescent="0.9">
+    <row r="90" spans="1:1020" s="52" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="61" t="s">
         <v>397</v>
       </c>
@@ -47207,7 +47198,7 @@
       <c r="AME90" s="63"/>
       <c r="AMF90" s="63"/>
     </row>
-    <row r="91" spans="1:1020" ht="54" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:1020" ht="55.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="67" t="s">
         <v>7</v>
       </c>
@@ -48257,7 +48248,7 @@
       <c r="AME91" s="59"/>
       <c r="AMF91" s="59"/>
     </row>
-    <row r="92" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="92" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="19" t="s">
         <v>294</v>
       </c>
@@ -48299,7 +48290,7 @@
       </c>
       <c r="N92" s="110"/>
     </row>
-    <row r="93" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="19" t="s">
         <v>339</v>
       </c>
@@ -48341,7 +48332,7 @@
       </c>
       <c r="N93" s="110"/>
     </row>
-    <row r="94" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="94" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="19" t="s">
         <v>241</v>
       </c>
@@ -48383,7 +48374,7 @@
       </c>
       <c r="N94" s="110"/>
     </row>
-    <row r="95" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="95" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="19" t="s">
         <v>242</v>
       </c>
@@ -48425,7 +48416,7 @@
       </c>
       <c r="N95" s="110"/>
     </row>
-    <row r="96" spans="1:1020" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="96" spans="1:1020" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -48468,7 +48459,7 @@
       </c>
       <c r="N96" s="110"/>
     </row>
-    <row r="97" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="97" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="19" t="s">
         <v>163</v>
       </c>
@@ -48511,7 +48502,7 @@
       </c>
       <c r="N97" s="110"/>
     </row>
-    <row r="98" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="98" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="19" t="s">
         <v>164</v>
       </c>
@@ -48554,7 +48545,7 @@
       </c>
       <c r="N98" s="110"/>
     </row>
-    <row r="99" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="99" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="19" t="s">
         <v>128</v>
       </c>
@@ -48597,7 +48588,7 @@
       </c>
       <c r="N99" s="110"/>
     </row>
-    <row r="100" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="100" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="19" t="s">
         <v>37</v>
       </c>
@@ -48640,7 +48631,7 @@
       </c>
       <c r="N100" s="110"/>
     </row>
-    <row r="101" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="101" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="19" t="s">
         <v>319</v>
       </c>
@@ -48683,7 +48674,7 @@
       </c>
       <c r="N101" s="110"/>
     </row>
-    <row r="102" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="102" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="19" t="s">
         <v>134</v>
       </c>
@@ -48726,7 +48717,7 @@
       </c>
       <c r="N102" s="110"/>
     </row>
-    <row r="103" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="103" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="19" t="s">
         <v>165</v>
       </c>
@@ -48769,7 +48760,7 @@
       </c>
       <c r="N103" s="110"/>
     </row>
-    <row r="104" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="104" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="19" t="s">
         <v>217</v>
       </c>
@@ -48812,7 +48803,7 @@
       </c>
       <c r="N104" s="110"/>
     </row>
-    <row r="105" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="105" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="19" t="s">
         <v>43</v>
       </c>
@@ -48855,7 +48846,7 @@
       </c>
       <c r="N105" s="110"/>
     </row>
-    <row r="106" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="106" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="19" t="s">
         <v>93</v>
       </c>
@@ -48901,7 +48892,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="107" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="19" t="s">
         <v>166</v>
       </c>
@@ -48944,7 +48935,7 @@
       </c>
       <c r="N107" s="110"/>
     </row>
-    <row r="108" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="108" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="19" t="s">
         <v>23</v>
       </c>
@@ -48988,7 +48979,7 @@
       </c>
       <c r="N108" s="110"/>
     </row>
-    <row r="109" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="109" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="19" t="s">
         <v>24</v>
       </c>
@@ -49031,7 +49022,7 @@
       </c>
       <c r="N109" s="110"/>
     </row>
-    <row r="110" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="110" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="19" t="s">
         <v>167</v>
       </c>
@@ -49074,7 +49065,7 @@
       </c>
       <c r="N110" s="110"/>
     </row>
-    <row r="111" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="111" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
         <v>26</v>
       </c>
@@ -49117,7 +49108,7 @@
       </c>
       <c r="N111" s="110"/>
     </row>
-    <row r="112" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="112" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="19" t="s">
         <v>27</v>
       </c>
@@ -49160,7 +49151,7 @@
       </c>
       <c r="N112" s="110"/>
     </row>
-    <row r="113" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="113" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="19" t="s">
         <v>29</v>
       </c>
@@ -49206,7 +49197,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="114" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="19" t="s">
         <v>30</v>
       </c>
@@ -49249,7 +49240,7 @@
       </c>
       <c r="N114" s="110"/>
     </row>
-    <row r="115" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="115" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="19" t="s">
         <v>170</v>
       </c>
@@ -49292,7 +49283,7 @@
       </c>
       <c r="N115" s="110"/>
     </row>
-    <row r="116" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="116" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="19" t="s">
         <v>33</v>
       </c>
@@ -49339,7 +49330,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="117" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="19" t="s">
         <v>92</v>
       </c>
@@ -49382,7 +49373,7 @@
       </c>
       <c r="N117" s="110"/>
     </row>
-    <row r="118" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="118" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="19" t="s">
         <v>35</v>
       </c>
@@ -49425,7 +49416,7 @@
       </c>
       <c r="N118" s="110"/>
     </row>
-    <row r="119" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="119" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="19" t="s">
         <v>36</v>
       </c>
@@ -49468,7 +49459,7 @@
       </c>
       <c r="N119" s="110"/>
     </row>
-    <row r="120" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="120" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="19" t="s">
         <v>320</v>
       </c>
@@ -49511,7 +49502,7 @@
       </c>
       <c r="N120" s="110"/>
     </row>
-    <row r="121" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="121" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="19" t="s">
         <v>12</v>
       </c>
@@ -49554,7 +49545,7 @@
       </c>
       <c r="N121" s="110"/>
     </row>
-    <row r="122" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="122" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="19" t="s">
         <v>17</v>
       </c>
@@ -49597,7 +49588,7 @@
       </c>
       <c r="N122" s="110"/>
     </row>
-    <row r="123" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="123" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="19" t="s">
         <v>300</v>
       </c>
@@ -49640,7 +49631,7 @@
       </c>
       <c r="N123" s="110"/>
     </row>
-    <row r="124" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="124" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="19" t="s">
         <v>32</v>
       </c>
@@ -49681,7 +49672,7 @@
       </c>
       <c r="N124" s="110"/>
     </row>
-    <row r="125" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="125" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="19" t="s">
         <v>60</v>
       </c>
@@ -49723,7 +49714,7 @@
       </c>
       <c r="N125" s="110"/>
     </row>
-    <row r="126" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="126" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="19" t="s">
         <v>359</v>
       </c>
@@ -49766,7 +49757,7 @@
       </c>
       <c r="N126" s="110"/>
     </row>
-    <row r="127" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="127" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="19" t="s">
         <v>266</v>
       </c>
@@ -49809,7 +49800,7 @@
       </c>
       <c r="N127" s="110"/>
     </row>
-    <row r="128" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="128" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="19" t="s">
         <v>91</v>
       </c>
@@ -49852,7 +49843,7 @@
       </c>
       <c r="N128" s="110"/>
     </row>
-    <row r="129" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="129" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="19" t="s">
         <v>42</v>
       </c>
@@ -49895,7 +49886,7 @@
       </c>
       <c r="N129" s="110"/>
     </row>
-    <row r="130" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="130" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="19" t="s">
         <v>40</v>
       </c>
@@ -49938,7 +49929,7 @@
       </c>
       <c r="N130" s="110"/>
     </row>
-    <row r="131" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="131" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="19" t="s">
         <v>301</v>
       </c>
@@ -49981,7 +49972,7 @@
       </c>
       <c r="N131" s="110"/>
     </row>
-    <row r="132" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="132" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="18" t="s">
         <v>52</v>
       </c>
@@ -50027,7 +50018,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="133" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="18" t="s">
         <v>313</v>
       </c>
@@ -50073,7 +50064,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="134" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="18" t="s">
         <v>479</v>
       </c>
@@ -50117,7 +50108,7 @@
       <c r="N134" s="109"/>
       <c r="O134" s="98"/>
     </row>
-    <row r="135" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="135" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="114" t="s">
         <v>503</v>
       </c>
@@ -50156,7 +50147,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="136" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="114" t="s">
         <v>508</v>
       </c>
@@ -50195,7 +50186,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="137" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="111" t="s">
         <v>511</v>
       </c>
@@ -50234,7 +50225,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="138" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="114" t="s">
         <v>514</v>
       </c>
@@ -50273,7 +50264,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="139" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="118" t="s">
         <v>519</v>
       </c>
@@ -50312,7 +50303,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="140" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="114" t="s">
         <v>523</v>
       </c>
@@ -50351,7 +50342,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="141" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="114" t="s">
         <v>528</v>
       </c>
@@ -50390,7 +50381,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="142" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="114" t="s">
         <v>529</v>
       </c>
@@ -50429,7 +50420,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="143" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="122" t="s">
         <v>551</v>
       </c>
@@ -50470,7 +50461,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="144" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="122" t="s">
         <v>554</v>
       </c>
@@ -50513,7 +50504,7 @@
       </c>
       <c r="N144" s="109"/>
     </row>
-    <row r="145" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="145" spans="1:15" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="24" t="s">
         <v>559</v>
       </c>
@@ -50559,7 +50550,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:AMF145" xr:uid="{74FC7BA3-A876-4AC0-9905-EF4CDF2546B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AMF133">
+    <sortState ref="A2:AMF133">
       <sortCondition ref="K1:K133"/>
     </sortState>
   </autoFilter>
